--- a/Data/PCR/Exp7_574_20b_148a_125a.xlsx
+++ b/Data/PCR/Exp7_574_20b_148a_125a.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Exp7_needMod" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 

--- a/Data/PCR/Exp7_574_20b_148a_125a.xlsx
+++ b/Data/PCR/Exp7_574_20b_148a_125a.xlsx
@@ -2043,15 +2043,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F31" sqref="F31:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>100</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>574</v>
       </c>
@@ -2081,8 +2081,12 @@
       <c r="F2">
         <v>27.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>B2-B23</f>
+        <v>-14.979999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>574</v>
       </c>
@@ -2098,8 +2102,12 @@
       <c r="F3">
         <v>27.84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="I3:J6" si="0">C3-C24</f>
+        <v>0.83999999999999631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>574</v>
       </c>
@@ -2115,8 +2123,12 @@
       <c r="G4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3.0500000000000025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>574</v>
       </c>
@@ -2132,8 +2144,12 @@
       <c r="G5">
         <v>17.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>574</v>
       </c>
@@ -2149,8 +2165,16 @@
       <c r="G6">
         <v>20.608000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.6600000000000037</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-4.1720000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -2174,7 +2198,7 @@
         <v>18.385999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>1.008586634850968</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -2226,7 +2250,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2237,7 +2261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2251,7 +2275,7 @@
         <v>28.321000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2268,7 +2292,7 @@
         <v>34.92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>31.6205</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>2.3330988245250248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -2429,7 +2453,14 @@
       <c r="C24">
         <v>38.92</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="F24">
+        <f>B2-38.675</f>
+        <v>-11.284999999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <f>C2-24.595</f>
+        <v>18.855000000000004</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2439,6 +2470,14 @@
       <c r="C25">
         <v>13.62</v>
       </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F28" si="1">B3-38.675</f>
+        <v>-10.834999999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G28" si="2">C3-24.595</f>
+        <v>15.164999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2447,6 +2486,14 @@
       <c r="C26">
         <v>21.06</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>-2.9549999999999983</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.9249999999999972</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2458,6 +2505,14 @@
       <c r="C27">
         <v>24.78</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4.115000000000002</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.7149999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -2471,6 +2526,14 @@
         <f>AVERAGE(C23:C27)</f>
         <v>24.594999999999999</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>-1.0349999999999966</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.9869999999999983</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2483,6 +2546,36 @@
       <c r="C29" s="2">
         <f>STDEV(C23:C27)/2</f>
         <v>5.3086933420569755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>B16-38.675</f>
+        <v>-2.904999999999994</v>
+      </c>
+      <c r="G31">
+        <f>C18-24.595</f>
+        <v>-0.99499999999999744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>B18-38.675</f>
+        <v>1.4350000000000023</v>
+      </c>
+      <c r="G32">
+        <f>C19-24.595</f>
+        <v>-3.8649999999999984</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>B20-38.675</f>
+        <v>-2.2749999999999986</v>
+      </c>
+      <c r="G33">
+        <f>C20-24.595</f>
+        <v>7.2550000000000026</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PCR/Exp7_574_20b_148a_125a.xlsx
+++ b/Data/PCR/Exp7_574_20b_148a_125a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exp7_needMod" sheetId="1" r:id="rId1"/>
@@ -2043,15 +2043,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G33"/>
+      <selection activeCell="M10" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>100</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>574</v>
       </c>
@@ -2085,8 +2085,16 @@
         <f>B2-B23</f>
         <v>-14.979999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>B2-28.675</f>
+        <v>-1.2850000000000001</v>
+      </c>
+      <c r="M2">
+        <f>C2-24.595</f>
+        <v>18.855000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>574</v>
       </c>
@@ -2106,8 +2114,16 @@
         <f t="shared" ref="I3:J6" si="0">C3-C24</f>
         <v>0.83999999999999631</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="1">B3-28.675</f>
+        <v>-0.83500000000000085</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="2">C3-24.595</f>
+        <v>15.164999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>574</v>
       </c>
@@ -2127,8 +2143,16 @@
         <f t="shared" si="0"/>
         <v>3.0500000000000025</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>7.0449999999999982</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>-7.9249999999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>574</v>
       </c>
@@ -2148,8 +2172,12 @@
         <f t="shared" si="0"/>
         <v>-3.1799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-6.7149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>574</v>
       </c>
@@ -2173,8 +2201,16 @@
         <f t="shared" si="0"/>
         <v>-4.1720000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>-3.9869999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -2198,7 +2234,7 @@
         <v>18.385999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -2222,7 +2258,7 @@
         <v>1.008586634850968</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2235,8 +2271,12 @@
       <c r="F9">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>B9-38.675</f>
+        <v>-10.804999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -2249,8 +2289,12 @@
       <c r="F10">
         <v>23.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" ref="L10:L13" si="3">B10-38.675</f>
+        <v>-14.944999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2260,8 +2304,12 @@
       <c r="E11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" ref="M10:M13" si="4">C11-24.595</f>
+        <v>14.935000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2274,8 +2322,12 @@
       <c r="G12">
         <v>28.321000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>3.7260000000000026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2291,8 +2343,16 @@
       <c r="G13">
         <v>34.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>2.4550000000000054</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>10.325000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
@@ -2316,7 +2376,7 @@
         <v>31.6205</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2340,7 +2400,7 @@
         <v>2.3330988245250248</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -2471,11 +2531,11 @@
         <v>13.62</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F28" si="1">B3-38.675</f>
+        <f t="shared" ref="F25:F28" si="5">B3-38.675</f>
         <v>-10.834999999999997</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:G28" si="2">C3-24.595</f>
+        <f t="shared" ref="G25:G28" si="6">C3-24.595</f>
         <v>15.164999999999999</v>
       </c>
     </row>
@@ -2487,11 +2547,11 @@
         <v>21.06</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-2.9549999999999983</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-7.9249999999999972</v>
       </c>
     </row>
@@ -2506,11 +2566,11 @@
         <v>24.78</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.115000000000002</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-6.7149999999999999</v>
       </c>
     </row>
@@ -2527,11 +2587,11 @@
         <v>24.594999999999999</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.0349999999999966</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-3.9869999999999983</v>
       </c>
     </row>
